--- a/example/formulation_3/input/PySedSim_Input_File - Sambor_EA_formulation_3_deterministic_reeval.xlsx
+++ b/example/formulation_3/input/PySedSim_Input_File - Sambor_EA_formulation_3_deterministic_reeval.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="1980" windowWidth="7140" windowHeight="3585" tabRatio="848" firstSheet="7" activeTab="7"/>
+    <workbookView xWindow="4860" yWindow="2040" windowWidth="7140" windowHeight="3525" tabRatio="848" firstSheet="13" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Simulation Specifications" sheetId="54" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="342">
   <si>
     <t/>
   </si>
@@ -923,6 +923,9 @@
     <t>fraction inflow</t>
   </si>
   <si>
+    <t>Stochastic</t>
+  </si>
+  <si>
     <t>Maximum Wallclock Time to Run Optimization (hours)</t>
   </si>
   <si>
@@ -992,9 +995,6 @@
     <t>Borg runtime dynamics interval</t>
   </si>
   <si>
-    <t>Master-Slave</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
@@ -1463,19 +1463,28 @@
     <t>Larvae Flow Fraction Dry</t>
   </si>
   <si>
-    <t>64, 96, 170, 232, 136, 110</t>
+    <t>Dry Season Daily Bypass \n Attraction Flow (m^3/s)</t>
+  </si>
+  <si>
+    <t>Dry Season \n Daily Bypass \n Attraction Flow \n (m^3/s)</t>
+  </si>
+  <si>
+    <t>177, 147, 103</t>
+  </si>
+  <si>
+    <t>Energy, Compromise, Larvae</t>
+  </si>
+  <si>
+    <t>Sambor EA</t>
+  </si>
+  <si>
+    <t>Sambor EA, Bypass Channel 1, Stung_Treng, Junction 4</t>
+  </si>
+  <si>
+    <t>Serial</t>
   </si>
   <si>
     <t>63, 131, 116, 267, 114, 148</t>
-  </si>
-  <si>
-    <t>Stochastic</t>
-  </si>
-  <si>
-    <t>Sambor EA</t>
-  </si>
-  <si>
-    <t>Sambor EA, Bypass Channel 1, Stung_Treng, Junction 4</t>
   </si>
 </sst>
 </file>
@@ -7032,112 +7041,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>581024</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>514349</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4914899" y="514350"/>
-          <a:ext cx="6105525" cy="2514600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Here's how I got this:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Organized</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> Robert's outputs by flow, so we see the fraction into the reservoir versus total upstream flow versus elevation.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Then, I figured out the TERMINAL (max WSE) point for each flow. That is, the highest the reservoir water level  can get for a given flow. This plots that for every flow. Roberts methods differed for main stem flows above 17,086, so I simply used the trend for the highest flow values to predict the TERMINAL points for the higher flows, which quickly reach 40 masl.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Having done all of that, I then multiplied the total upstream flows by the terminal fraction, so they represent the RESERVOIR inflows, which are needed to be placed in the table here. The terminal fractions of reservoir inflow for high water levels become constant at about 46% at very high flows. (half of the water is getting into the anabranch). Is this a believable percentage? Need to check on this.</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -7484,7 +7387,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7521,7 +7424,7 @@
         <v>62</v>
       </c>
       <c r="B4" s="53">
-        <v>41273</v>
+        <v>38716</v>
       </c>
       <c r="C4" s="79"/>
       <c r="D4" s="79"/>
@@ -7531,7 +7434,7 @@
         <v>113</v>
       </c>
       <c r="B5" s="53" t="s">
-        <v>336</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -7539,7 +7442,7 @@
         <v>112</v>
       </c>
       <c r="B6" s="83">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -7562,9 +7465,7 @@
   </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7581,7 +7482,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="49" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B1" s="49"/>
       <c r="C1" s="49"/>
@@ -7650,9 +7551,7 @@
   </sheetPr>
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7662,7 +7561,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="128" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B1" s="127"/>
     </row>
@@ -7878,7 +7777,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7925,7 +7824,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="85" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D2" s="35">
         <v>21</v>
@@ -7951,7 +7850,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="85" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D3" s="35">
         <v>1</v>
@@ -8002,7 +7901,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8013,7 +7912,7 @@
     <col min="4" max="5" width="11.875" style="127" customWidth="1"/>
     <col min="6" max="6" width="10.125" style="93" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.625" style="93" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.25" style="93" customWidth="1"/>
+    <col min="8" max="8" width="11.75" style="93" customWidth="1"/>
     <col min="9" max="9" width="19.625" style="93" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.875" style="93" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.25" style="93" customWidth="1"/>
@@ -8055,7 +7954,7 @@
         <v>129</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>177</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -8082,13 +7981,13 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="109" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="109" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B10" s="107" t="s">
         <v>20</v>
@@ -8096,7 +7995,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="145" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B11" s="107" t="s">
         <v>20</v>
@@ -8104,7 +8003,7 @@
     </row>
     <row r="12" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="146" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B12" s="107" t="s">
         <v>20</v>
@@ -8112,7 +8011,7 @@
     </row>
     <row r="13" spans="1:15" s="127" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="146" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B13" s="107" t="s">
         <v>20</v>
@@ -8120,33 +8019,33 @@
     </row>
     <row r="14" spans="1:15" s="127" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="146" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B14" s="107">
-        <v>5000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A15" s="105" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B15" s="105" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C15" s="43" t="s">
         <v>143</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E15" s="43" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F15" s="43" t="s">
         <v>144</v>
       </c>
       <c r="G15" s="43" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H15" s="110" t="s">
         <v>145</v>
@@ -8155,13 +8054,13 @@
         <v>146</v>
       </c>
       <c r="J15" s="147" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K15" s="147" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L15" s="147" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O15" s="181" t="s">
         <v>314</v>
@@ -8188,10 +8087,10 @@
         <v>0.01</v>
       </c>
       <c r="H16" s="13">
-        <v>400000</v>
+        <v>100000</v>
       </c>
       <c r="I16" s="111" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="J16" s="14">
         <v>1E-3</v>
@@ -8203,7 +8102,7 @@
         <v>20</v>
       </c>
       <c r="O16" s="13">
-        <v>50000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="127" customFormat="1" x14ac:dyDescent="0.2">
@@ -8227,10 +8126,10 @@
         <v>0.01</v>
       </c>
       <c r="H17" s="13">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="I17" s="111" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="J17" s="14">
         <v>1E-3</v>
@@ -8242,7 +8141,7 @@
         <v>20</v>
       </c>
       <c r="O17" s="13">
-        <v>10000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
@@ -8279,7 +8178,7 @@
         <v>20</v>
       </c>
       <c r="O18" s="13">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
@@ -8306,7 +8205,7 @@
         <v>0.03</v>
       </c>
       <c r="I19" s="111" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="J19" s="111"/>
       <c r="K19" s="148" t="s">
@@ -8316,7 +8215,7 @@
         <v>20</v>
       </c>
       <c r="O19" s="13">
-        <v>2.5000000000000001E-2</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
@@ -8343,7 +8242,7 @@
         <v>0.03</v>
       </c>
       <c r="I20" s="111" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="J20" s="20"/>
       <c r="K20" s="148" t="s">
@@ -8353,7 +8252,7 @@
         <v>20</v>
       </c>
       <c r="O20" s="13">
-        <v>2.5000000000000001E-2</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -8374,13 +8273,13 @@
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="107">
-        <v>0.01</v>
+        <v>0.99</v>
       </c>
       <c r="H21" s="13">
         <v>2000000000</v>
       </c>
       <c r="I21" s="111" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="J21" s="13">
         <f>0.000000001</f>
@@ -8393,7 +8292,7 @@
         <v>20</v>
       </c>
       <c r="O21" s="13">
-        <v>50000000</v>
+        <v>2000000000</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
@@ -8414,7 +8313,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8425,7 +8324,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="114" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B1" s="113"/>
     </row>
@@ -8623,7 +8522,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9373,7 +9271,7 @@
   <dimension ref="A1:N143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9399,7 +9297,7 @@
         <v>55</v>
       </c>
       <c r="C2" s="126" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D2" s="132" t="s">
         <v>109</v>
@@ -11472,9 +11370,7 @@
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11485,7 +11381,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="44" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -11496,7 +11392,7 @@
         <v>115</v>
       </c>
       <c r="C2" s="144" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D2" s="149" t="s">
         <v>179</v>
@@ -11626,7 +11522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
@@ -11864,7 +11760,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="165" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B13" s="155" t="s">
         <v>189</v>
@@ -11881,7 +11777,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="166" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B14" s="48">
         <v>1</v>
@@ -11899,7 +11795,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="166" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B15" s="155" t="s">
         <v>80</v>
@@ -11919,7 +11815,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="166" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B16" s="155" t="s">
         <v>20</v>
@@ -11999,7 +11895,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="165" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B21" s="155" t="s">
         <v>192</v>
@@ -12016,7 +11912,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="166" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B22" s="156">
         <v>1E-3</v>
@@ -12033,7 +11929,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="166" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B23" s="155" t="s">
         <v>20</v>
@@ -12050,7 +11946,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="166" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B24" s="155" t="s">
         <v>20</v>
@@ -12127,7 +12023,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="165" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B29" s="155" t="s">
         <v>191</v>
@@ -12144,7 +12040,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="166" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B30" s="48">
         <v>1</v>
@@ -12161,7 +12057,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="166" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B31" s="155" t="s">
         <v>20</v>
@@ -12178,7 +12074,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="166" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B32" s="155" t="s">
         <v>20</v>
@@ -12267,7 +12163,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="165" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B38" s="165"/>
       <c r="C38" s="165"/>
@@ -12277,7 +12173,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="166" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B39" s="166"/>
       <c r="C39" s="166"/>
@@ -12287,7 +12183,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="166" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B40" s="166"/>
       <c r="C40" s="166"/>
@@ -12297,7 +12193,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="166" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B41" s="166"/>
       <c r="C41" s="166"/>
@@ -12356,7 +12252,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="165" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B46" s="165"/>
       <c r="C46" s="165"/>
@@ -12366,7 +12262,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="166" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B47" s="166"/>
       <c r="C47" s="166"/>
@@ -12376,7 +12272,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="166" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B48" s="166"/>
       <c r="C48" s="166"/>
@@ -12386,7 +12282,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="166" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B49" s="166"/>
       <c r="C49" s="166"/>
@@ -12741,19 +12637,19 @@
         <v>300</v>
       </c>
       <c r="B7" s="177" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="C7" s="177" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="D7" s="177" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="E7" s="177" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="F7" s="177" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="H7" s="155" t="s">
         <v>301</v>
@@ -12786,7 +12682,7 @@
         <v>316</v>
       </c>
       <c r="B8" s="162" t="s">
-        <v>317</v>
+        <v>336</v>
       </c>
       <c r="C8" s="162" t="s">
         <v>317</v>
@@ -12817,7 +12713,7 @@
         <v>271</v>
       </c>
       <c r="B9" s="180" t="s">
-        <v>273</v>
+        <v>337</v>
       </c>
       <c r="C9" s="180" t="s">
         <v>273</v>
@@ -12866,7 +12762,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="165" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B11" s="155" t="s">
         <v>192</v>
@@ -12917,7 +12813,7 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="166" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B12" s="156">
         <v>1E-3</v>
@@ -12968,7 +12864,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="166" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B13" s="155" t="s">
         <v>20</v>
@@ -13019,7 +12915,7 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="166" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B14" s="155" t="s">
         <v>20</v>
@@ -13165,7 +13061,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="165" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B18" s="155" t="s">
         <v>189</v>
@@ -13216,7 +13112,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="166" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B19" s="48">
         <v>1</v>
@@ -13267,7 +13163,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="166" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B20" s="155" t="s">
         <v>80</v>
@@ -13318,7 +13214,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="166" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B21" s="155" t="s">
         <v>20</v>
@@ -13460,7 +13356,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="165" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B25" s="107" t="s">
         <v>191</v>
@@ -13511,7 +13407,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="166" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B26" s="48">
         <v>1</v>
@@ -13562,7 +13458,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="166" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B27" s="48" t="s">
         <v>20</v>
@@ -13613,7 +13509,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="166" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B28" s="48" t="s">
         <v>20</v>
@@ -13696,7 +13592,7 @@
         <v>222</v>
       </c>
       <c r="B30" s="155" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="C30" s="155" t="s">
         <v>298</v>
@@ -13759,7 +13655,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="165" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B32" s="107" t="s">
         <v>190</v>
@@ -13810,7 +13706,7 @@
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="166" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B33" s="48">
         <v>1</v>
@@ -13861,7 +13757,7 @@
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="166" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B34" s="48" t="s">
         <v>80</v>
@@ -13912,7 +13808,7 @@
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="166" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B35" s="48" t="s">
         <v>20</v>
@@ -14062,7 +13958,7 @@
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="165" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B39" s="107" t="s">
         <v>193</v>
@@ -14113,7 +14009,7 @@
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="166" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B40" s="156">
         <v>1E-3</v>
@@ -14164,7 +14060,7 @@
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="166" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B41" s="48" t="s">
         <v>20</v>
@@ -14215,7 +14111,7 @@
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="166" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B42" s="48" t="s">
         <v>20</v>
@@ -14362,7 +14258,7 @@
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="165" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B46" s="148" t="s">
         <v>185</v>
@@ -14413,7 +14309,7 @@
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="166" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B47" s="13">
         <f>0.000000001</f>
@@ -14479,7 +14375,7 @@
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="166" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B48" s="155" t="s">
         <v>20</v>
@@ -14530,7 +14426,7 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="166" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B49" s="155" t="s">
         <v>20</v>
@@ -14665,7 +14561,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14739,7 +14635,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
@@ -14940,7 +14836,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14961,7 +14857,7 @@
         <v>126</v>
       </c>
       <c r="B2" s="87" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -14981,8 +14877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15006,7 +14902,7 @@
         <v>203</v>
       </c>
       <c r="B1" s="155" t="s">
-        <v>336</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -15014,7 +14910,7 @@
         <v>204</v>
       </c>
       <c r="B2" s="48">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -15029,11 +14925,8 @@
       <c r="A4" s="154" t="s">
         <v>205</v>
       </c>
-      <c r="B4" s="87" t="s">
-        <v>335</v>
-      </c>
-      <c r="C4" s="155" t="s">
-        <v>334</v>
+      <c r="B4" s="48" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -15053,31 +14946,31 @@
         <v>196</v>
       </c>
       <c r="B7" s="151" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C7" s="152" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D7" s="152" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E7" s="152" t="s">
         <v>144</v>
       </c>
       <c r="F7" s="152" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G7" s="152" t="s">
         <v>146</v>
       </c>
       <c r="H7" s="153" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I7" s="153" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J7" s="153" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K7" s="153" t="s">
         <v>197</v>
@@ -15107,7 +15000,7 @@
         <v>147</v>
       </c>
       <c r="G8" s="145" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H8" s="156">
         <v>1E-3</v>
@@ -15144,7 +15037,7 @@
         <v>147</v>
       </c>
       <c r="G9" s="145" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H9" s="156">
         <v>1E-3</v>
@@ -15181,7 +15074,7 @@
         <v>147</v>
       </c>
       <c r="G10" s="145" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H10" s="156">
         <v>1E-3</v>
@@ -15323,7 +15216,7 @@
         <v>147</v>
       </c>
       <c r="G14" s="145" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H14" s="145"/>
       <c r="I14" s="157" t="s">
@@ -15358,7 +15251,7 @@
         <v>147</v>
       </c>
       <c r="G15" s="145" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H15" s="145"/>
       <c r="I15" s="157" t="s">
@@ -15395,7 +15288,7 @@
         <v>147</v>
       </c>
       <c r="G16" s="145" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H16" s="145"/>
       <c r="I16" s="157" t="s">
@@ -15430,7 +15323,7 @@
         <v>149</v>
       </c>
       <c r="G17" s="145" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H17" s="48">
         <f>0.000000001</f>
@@ -15537,7 +15430,7 @@
   </sheetPr>
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -15713,7 +15606,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B5" s="13">
         <v>2.0000000000000002E-5</v>
@@ -15773,7 +15666,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="44" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -16263,7 +16156,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B2" s="13">
         <v>130.19999999999999</v>
@@ -16320,9 +16213,7 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -16331,7 +16222,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="89" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -16452,9 +16343,9 @@
   </sheetPr>
   <dimension ref="A1:Y103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N4" sqref="N4"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16551,15 +16442,15 @@
         <v>106</v>
       </c>
       <c r="X1" s="56" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y1" s="56" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B2" s="59">
         <v>39</v>
@@ -16593,7 +16484,7 @@
         <v>30000</v>
       </c>
       <c r="N2" s="70" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="O2" s="59" t="s">
         <v>20</v>
@@ -17785,8 +17676,8 @@
   </sheetPr>
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17812,7 +17703,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="87" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B1" s="87"/>
       <c r="C1" s="87"/>
@@ -17864,21 +17755,21 @@
         <v>45</v>
       </c>
       <c r="M2" s="34" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N2" s="34" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O2" s="34" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P2" s="34" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="45">
-        <v>44316</v>
+        <v>7791</v>
       </c>
       <c r="B3" s="35">
         <v>5</v>
@@ -17921,7 +17812,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="45">
         <f t="shared" ref="A4:A9" si="0">DATE(YEAR(A3)+15,MONTH(A3), DAY(A3))</f>
-        <v>49795</v>
+        <v>13270</v>
       </c>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -17948,7 +17839,7 @@
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="45">
         <f t="shared" si="0"/>
-        <v>55273</v>
+        <v>18748</v>
       </c>
       <c r="B5" s="35"/>
       <c r="C5" s="35"/>
@@ -17965,7 +17856,7 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="45">
         <f t="shared" si="0"/>
-        <v>60752</v>
+        <v>24227</v>
       </c>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
@@ -17982,7 +17873,7 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="45">
         <f t="shared" si="0"/>
-        <v>66231</v>
+        <v>29706</v>
       </c>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
@@ -17999,7 +17890,7 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="45">
         <f t="shared" si="0"/>
-        <v>71709</v>
+        <v>35185</v>
       </c>
       <c r="B8" s="35"/>
       <c r="C8" s="35"/>
@@ -18016,7 +17907,7 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="45">
         <f t="shared" si="0"/>
-        <v>77187</v>
+        <v>40663</v>
       </c>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -18033,7 +17924,7 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="45">
         <f>DATE(YEAR(A9)+9,MONTH(A9), DAY(A9))</f>
-        <v>80475</v>
+        <v>43951</v>
       </c>
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
